--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-02_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-02_beg.xlsx
@@ -496,7 +496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="…", values="1")]
+    <t xml:space="preserve">[Decision(options="...", values="1")]
 </t>
   </si>
   <si>
